--- a/Test_excel_1.xlsx
+++ b/Test_excel_1.xlsx
@@ -335,7 +335,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,44 +381,19 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.06</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.08</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.09</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test_excel_1.xlsx
+++ b/Test_excel_1.xlsx
@@ -335,7 +335,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,12 +373,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.05</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
